--- a/Contabilidad Alesa/CONTABILIDAD.xlsx
+++ b/Contabilidad Alesa/CONTABILIDAD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel7byte\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel7byte\Documents\GitHub\power-bi-platzi\Contabilidad Alesa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F869F77-E276-457D-B8B1-3F09F722B874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B1D353-F17A-4E77-AA7A-459EA1E8C663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="104">
   <si>
     <t>CONTA S.A.S DE ENERO A ABRIL DE 2020</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>IVA</t>
+  </si>
+  <si>
+    <t>BANCO EXTERIOR</t>
+  </si>
+  <si>
+    <t>PROVEEDOR EXTERIOR</t>
   </si>
 </sst>
 </file>
@@ -540,19 +546,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -590,8 +596,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1B30425E-78FF-46BE-BF96-CD3044DB823A}" name="Tabla3" displayName="Tabla3" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{2F3E285A-DCF7-492D-A16B-F647B7098297}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1B30425E-78FF-46BE-BF96-CD3044DB823A}" name="Tabla3" displayName="Tabla3" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7" xr:uid="{2F3E285A-DCF7-492D-A16B-F647B7098297}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3329F240-5C6B-416F-B4F4-2066C648E6B8}" name="CÓDIGO "/>
     <tableColumn id="2" xr3:uid="{6630B2B2-5CB4-4A21-A890-3C4BF3A03741}" name="DESCRIPCIÓN"/>
@@ -945,23 +951,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -979,26 +985,26 @@
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48" t="s">
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48" t="s">
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
       <c r="T3" s="15" t="s">
         <v>19</v>
       </c>
@@ -1021,9 +1027,9 @@
         <v>2000000</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1073,8 +1079,8 @@
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="47"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="2"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -1116,10 +1122,10 @@
       <c r="G6" s="4">
         <v>43875</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="47"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="2">
         <v>13</v>
       </c>
@@ -1172,10 +1178,10 @@
       <c r="G7" s="4">
         <v>43881</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="47"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="2"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -1216,10 +1222,10 @@
       <c r="G8" s="4">
         <v>43886</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="47"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="2">
         <v>3</v>
       </c>
@@ -1260,10 +1266,10 @@
       <c r="G9" s="4">
         <v>43895</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="47"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="2"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -1315,10 +1321,10 @@
       <c r="G10" s="4">
         <v>43922</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="47"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="2">
         <v>10</v>
       </c>
@@ -1369,10 +1375,10 @@
       <c r="G11" s="4">
         <v>43926</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="H11" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="47"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="2"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1424,10 +1430,10 @@
       <c r="G12" s="4">
         <v>43941</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="47"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="2">
         <v>30</v>
       </c>
@@ -1477,10 +1483,10 @@
       <c r="G13" s="4">
         <v>43983</v>
       </c>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="47"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="2">
         <v>24</v>
       </c>
@@ -1530,10 +1536,10 @@
       <c r="G14" s="4">
         <v>43986</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="47"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="2"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1881,22 +1887,22 @@
       <c r="E42" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="48"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="2" t="s">
         <v>4</v>
       </c>
@@ -1909,8 +1915,8 @@
       <c r="A47" s="2">
         <v>1105</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="47"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="5">
         <f>D33</f>
         <v>1454720</v>
@@ -1924,8 +1930,8 @@
       <c r="A48" s="2">
         <v>1110</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="47"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
       <c r="D48" s="5">
         <f>X5-E41</f>
         <v>4895000</v>
@@ -1939,8 +1945,8 @@
       <c r="A49" s="2">
         <v>1305</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="47"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="5">
         <f>D14-E34</f>
         <v>2182080</v>
@@ -1954,8 +1960,8 @@
       <c r="A50" s="2">
         <v>1355</v>
       </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="47"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="5">
         <f>D12+D13</f>
         <v>171200</v>
@@ -1969,8 +1975,8 @@
       <c r="A51" s="2">
         <v>1435</v>
       </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
       <c r="D51" s="5">
         <v>3130000</v>
       </c>
@@ -1983,8 +1989,8 @@
       <c r="A52" s="2">
         <v>1524</v>
       </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="47"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="5">
         <v>8000000</v>
       </c>
@@ -1997,8 +2003,8 @@
       <c r="A53" s="2">
         <v>1528</v>
       </c>
-      <c r="B53" s="46"/>
-      <c r="C53" s="47"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="5">
         <v>9000000</v>
       </c>
@@ -2011,8 +2017,8 @@
       <c r="A54" s="2">
         <v>2205</v>
       </c>
-      <c r="B54" s="46"/>
-      <c r="C54" s="47"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5">
         <f>E6+E24-D30</f>
@@ -2026,8 +2032,8 @@
       <c r="A55" s="2">
         <v>2365</v>
       </c>
-      <c r="B55" s="46"/>
-      <c r="C55" s="47"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5">
         <f>E23-D29</f>
@@ -2041,8 +2047,8 @@
       <c r="A56" s="2">
         <v>2408</v>
       </c>
-      <c r="B56" s="46"/>
-      <c r="C56" s="47"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
       <c r="D56" s="5">
         <f>D5-E11+D22-E28</f>
         <v>290700</v>
@@ -2056,8 +2062,8 @@
       <c r="A57" s="2">
         <v>3115</v>
       </c>
-      <c r="B57" s="46"/>
-      <c r="C57" s="47"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5">
         <v>22000000</v>
@@ -2070,8 +2076,8 @@
       <c r="A58" s="2">
         <v>4135</v>
       </c>
-      <c r="B58" s="46"/>
-      <c r="C58" s="47"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5">
         <f>E10</f>
@@ -2085,8 +2091,8 @@
       <c r="A59" s="2">
         <v>5135</v>
       </c>
-      <c r="B59" s="46"/>
-      <c r="C59" s="47"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
       <c r="D59" s="5">
         <f>D36+D37</f>
         <v>105000</v>
@@ -2100,8 +2106,8 @@
       <c r="A60" s="2">
         <v>6135</v>
       </c>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="5">
         <f>D16</f>
         <v>1600000</v>
@@ -2113,8 +2119,8 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="5">
         <f>SUM(D47:D60)</f>
         <v>30828700</v>
@@ -2129,8 +2135,8 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="G62" s="6">
@@ -2154,6 +2160,26 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
@@ -2168,26 +2194,6 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2198,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E6"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2215,15 +2221,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3146,22 +3152,22 @@
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="48"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="5" t="s">
         <v>4</v>
       </c>
@@ -3173,8 +3179,8 @@
       <c r="A46" s="6">
         <v>1105</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="47"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="5">
         <f>D40+ENERO!D47</f>
         <v>10455800</v>
@@ -3185,8 +3191,8 @@
       <c r="A47" s="6">
         <v>1110</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="47"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="5">
         <f>ENERO!D48+'FEBRERO '!D6-'FEBRERO '!E35</f>
         <v>23975000</v>
@@ -3197,8 +3203,8 @@
       <c r="A48" s="6">
         <v>1305</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="47"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
       <c r="D48" s="5">
         <v>0</v>
       </c>
@@ -3210,8 +3216,8 @@
       <c r="A49" s="6">
         <v>1355</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="47"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="5">
         <f>ENERO!D50+'FEBRERO '!D19+'FEBRERO '!D20-'FEBRERO '!E28-'FEBRERO '!E29</f>
         <v>492200</v>
@@ -3222,8 +3228,8 @@
       <c r="A50" s="6">
         <v>1435</v>
       </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="47"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="5">
         <f>ENERO!R8</f>
         <v>2069648</v>
@@ -3234,8 +3240,8 @@
       <c r="A51" s="6">
         <v>1524</v>
       </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
       <c r="D51" s="5">
         <f>ENERO!D52</f>
         <v>8000000</v>
@@ -3246,8 +3252,8 @@
       <c r="A52" s="6">
         <v>1528</v>
       </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="47"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="5">
         <f>ENERO!D53</f>
         <v>9000000</v>
@@ -3258,8 +3264,8 @@
       <c r="A53" s="6">
         <v>2105</v>
       </c>
-      <c r="B53" s="46"/>
-      <c r="C53" s="47"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5">
         <f>E4</f>
@@ -3270,8 +3276,8 @@
       <c r="A54" s="6">
         <v>2205</v>
       </c>
-      <c r="B54" s="46"/>
-      <c r="C54" s="47"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5">
         <f>E15+ENERO!E54</f>
@@ -3282,8 +3288,8 @@
       <c r="A55" s="6">
         <v>2305</v>
       </c>
-      <c r="B55" s="46"/>
-      <c r="C55" s="47"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5">
         <f>E10</f>
@@ -3294,8 +3300,8 @@
       <c r="A56" s="6">
         <v>2365</v>
       </c>
-      <c r="B56" s="46"/>
-      <c r="C56" s="47"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5">
         <f>E14+ENERO!E55</f>
@@ -3306,8 +3312,8 @@
       <c r="A57" s="6">
         <v>2408</v>
       </c>
-      <c r="B57" s="46"/>
-      <c r="C57" s="47"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5">
         <f>342950</f>
@@ -3318,8 +3324,8 @@
       <c r="A58" s="6">
         <v>3115</v>
       </c>
-      <c r="B58" s="46"/>
-      <c r="C58" s="47"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5">
         <f>ENERO!E57</f>
@@ -3330,8 +3336,8 @@
       <c r="A59" s="6">
         <v>4135</v>
       </c>
-      <c r="B59" s="46"/>
-      <c r="C59" s="47"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5">
         <f>E17+ENERO!E58</f>
@@ -3342,8 +3348,8 @@
       <c r="A60" s="6">
         <v>4275</v>
       </c>
-      <c r="B60" s="46"/>
-      <c r="C60" s="47"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
       <c r="D60" s="5">
         <f>D26</f>
         <v>1200000</v>
@@ -3354,8 +3360,8 @@
       <c r="A61" s="6">
         <v>5105</v>
       </c>
-      <c r="B61" s="46"/>
-      <c r="C61" s="47"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="46"/>
       <c r="D61" s="5">
         <f>D9</f>
         <v>136000</v>
@@ -3366,8 +3372,8 @@
       <c r="A62" s="6">
         <v>5135</v>
       </c>
-      <c r="B62" s="46"/>
-      <c r="C62" s="47"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="46"/>
       <c r="D62" s="5">
         <f>ENERO!D59+'FEBRERO '!D33+'FEBRERO '!D34</f>
         <v>905000</v>
@@ -3378,8 +3384,8 @@
       <c r="A63" s="6">
         <v>5305</v>
       </c>
-      <c r="B63" s="46"/>
-      <c r="C63" s="47"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="46"/>
       <c r="D63" s="5">
         <f>D5</f>
         <v>120000</v>
@@ -3390,8 +3396,8 @@
       <c r="A64" s="6">
         <v>6135</v>
       </c>
-      <c r="B64" s="46"/>
-      <c r="C64" s="47"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="46"/>
       <c r="D64" s="5">
         <f>ENERO!D60+'FEBRERO '!D23</f>
         <v>5325352</v>
@@ -3506,6 +3512,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B64:C64"/>
@@ -3514,21 +3535,6 @@
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3538,7 +3544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:E20"/>
     </sheetView>
   </sheetViews>
@@ -3551,10 +3557,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -3813,10 +3819,10 @@
       <c r="A25" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="48"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="5" t="s">
         <v>4</v>
       </c>
@@ -3828,8 +3834,8 @@
       <c r="A26" s="23">
         <v>1105</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="5">
         <f>'FEBRERO '!D46</f>
         <v>10455800</v>
@@ -3840,8 +3846,8 @@
       <c r="A27" s="23">
         <v>1110</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="5">
         <f>'FEBRERO '!D47-E16</f>
         <v>23031287</v>
@@ -3852,8 +3858,8 @@
       <c r="A28" s="23">
         <v>1305</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="5">
         <f>'MARZO '!D7</f>
         <v>2330000</v>
@@ -3864,8 +3870,8 @@
       <c r="A29" s="23">
         <v>1355</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="5">
         <f>'FEBRERO '!D49+'MARZO '!D6</f>
         <v>542200</v>
@@ -3876,8 +3882,8 @@
       <c r="A30" s="23">
         <v>1435</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="5">
         <f>'FEBRERO '!D50-'MARZO '!E10</f>
         <v>1034828</v>
@@ -3888,8 +3894,8 @@
       <c r="A31" s="23">
         <v>1524</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="5">
         <f>'FEBRERO '!D51</f>
         <v>8000000</v>
@@ -3900,8 +3906,8 @@
       <c r="A32" s="23">
         <v>1528</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="5">
         <f>'FEBRERO '!D52</f>
         <v>9000000</v>
@@ -3912,8 +3918,8 @@
       <c r="A33" s="23">
         <v>2105</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5">
         <f>'FEBRERO '!E53-'MARZO '!D13</f>
@@ -3924,8 +3930,8 @@
       <c r="A34" s="23">
         <v>2205</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5">
         <f>'FEBRERO '!E54</f>
@@ -3936,8 +3942,8 @@
       <c r="A35" s="23">
         <v>2305</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5">
         <f>'FEBRERO '!E55-'MARZO '!D14+'MARZO '!E20</f>
@@ -3948,8 +3954,8 @@
       <c r="A36" s="23">
         <v>2365</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5">
         <f>'FEBRERO '!E56</f>
@@ -3960,8 +3966,8 @@
       <c r="A37" s="23">
         <v>2408</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5">
         <f>'FEBRERO '!E57+'MARZO '!E5</f>
@@ -3972,8 +3978,8 @@
       <c r="A38" s="23">
         <v>3115</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5">
         <f>'FEBRERO '!E58</f>
@@ -3984,8 +3990,8 @@
       <c r="A39" s="23">
         <v>4135</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5">
         <f>'FEBRERO '!E59+'MARZO '!E4</f>
@@ -3996,8 +4002,8 @@
       <c r="A40" s="23">
         <v>4275</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="47"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="5">
         <f>'FEBRERO '!D60</f>
         <v>1200000</v>
@@ -4008,8 +4014,8 @@
       <c r="A41" s="23">
         <v>5105</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="47"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="5">
         <f>'FEBRERO '!D61+'MARZO '!D19+'MARZO '!D15</f>
         <v>334969.95160000003</v>
@@ -4020,8 +4026,8 @@
       <c r="A42" s="23">
         <v>5135</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="5">
         <f>'FEBRERO '!D62</f>
         <v>905000</v>
@@ -4032,8 +4038,8 @@
       <c r="A43" s="23">
         <v>5305</v>
       </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="47"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
       <c r="D43" s="5">
         <f>'FEBRERO '!D63</f>
         <v>120000</v>
@@ -4044,8 +4050,8 @@
       <c r="A44" s="23">
         <v>6135</v>
       </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="47"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="5">
         <f>'FEBRERO '!D64+ENERO!O9</f>
         <v>6360172</v>
@@ -4268,6 +4274,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B25:C25"/>
@@ -4280,15 +4295,6 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4298,8 +4304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:A75"/>
+    <sheetView topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4321,12 +4327,12 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
       <c r="M2" s="24" t="s">
         <v>53</v>
       </c>
@@ -5045,12 +5051,12 @@
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
       <c r="E50" s="3"/>
       <c r="H50" s="5">
         <v>126</v>
@@ -5069,10 +5075,10 @@
       <c r="A52" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="48" t="s">
+      <c r="B52" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="48"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="5" t="s">
         <v>4</v>
       </c>
@@ -5088,8 +5094,8 @@
       <c r="A53" s="23">
         <v>1105</v>
       </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="5">
         <f>'MARZO '!D26</f>
         <v>10455800</v>
@@ -5104,8 +5110,8 @@
       <c r="A54" s="23">
         <v>1110</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="5">
         <f>'MARZO '!D27-'ABRIL '!E22+D27-E33</f>
         <v>52887564</v>
@@ -5116,8 +5122,8 @@
       <c r="A55" s="23">
         <v>1305</v>
       </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="5">
         <f>'MARZO '!D28+'ABRIL '!D13</f>
         <v>5966800</v>
@@ -5128,8 +5134,8 @@
       <c r="A56" s="23">
         <v>1355</v>
       </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="5">
         <f>'MARZO '!D29+'ABRIL '!D11+'ABRIL '!D12</f>
         <v>713400</v>
@@ -5140,8 +5146,8 @@
       <c r="A57" s="23">
         <v>1435</v>
       </c>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="5">
         <f>'MARZO '!D30+'ABRIL '!D4-'ABRIL '!E16+'ABRIL '!D30</f>
         <v>8065252</v>
@@ -5152,8 +5158,8 @@
       <c r="A58" s="23">
         <v>1524</v>
       </c>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
       <c r="D58" s="5">
         <f>'MARZO '!D31</f>
         <v>8000000</v>
@@ -5164,8 +5170,8 @@
       <c r="A59" s="23">
         <v>1528</v>
       </c>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
       <c r="D59" s="5">
         <f>'MARZO '!D32</f>
         <v>9000000</v>
@@ -5176,8 +5182,8 @@
       <c r="A60" s="23">
         <v>2105</v>
       </c>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5">
         <f>'MARZO '!E33-'ABRIL '!D19</f>
@@ -5188,8 +5194,8 @@
       <c r="A61" s="23">
         <v>2110</v>
       </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5">
         <f>E25-D37</f>
@@ -5200,8 +5206,8 @@
       <c r="A62" s="23">
         <v>2205</v>
       </c>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5">
         <f>'MARZO '!E34+'ABRIL '!E6</f>
@@ -5212,8 +5218,8 @@
       <c r="A63" s="23">
         <v>2210</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5">
         <f>E34-D40</f>
@@ -5224,8 +5230,8 @@
       <c r="A64" s="23">
         <v>2305</v>
       </c>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5">
         <f>'MARZO '!E35-'ABRIL '!D20+'ABRIL '!E44+'ABRIL '!E47</f>
@@ -5236,8 +5242,8 @@
       <c r="A65" s="23">
         <v>2365</v>
       </c>
-      <c r="B65" s="48"/>
-      <c r="C65" s="48"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5">
         <f>'MARZO '!E36</f>
@@ -5248,8 +5254,8 @@
       <c r="A66" s="23">
         <v>2408</v>
       </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="5">
         <f>D5+D31-E10-'MARZO '!E37</f>
         <v>327560</v>
@@ -5260,8 +5266,8 @@
       <c r="A67" s="23">
         <v>3115</v>
       </c>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5">
         <f>'MARZO '!E38</f>
@@ -5272,8 +5278,8 @@
       <c r="A68" s="23">
         <v>4135</v>
       </c>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5">
         <f>'MARZO '!E39+'ABRIL '!E9</f>
@@ -5284,8 +5290,8 @@
       <c r="A69" s="23">
         <v>4210</v>
       </c>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5">
         <f>D37+D40</f>
@@ -5296,8 +5302,8 @@
       <c r="A70" s="23">
         <v>4275</v>
       </c>
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="5">
         <f>'MARZO '!D40</f>
         <v>1200000</v>
@@ -5308,8 +5314,8 @@
       <c r="A71" s="23">
         <v>5105</v>
       </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
       <c r="D71" s="5">
         <f>D21+D43+D46+'MARZO '!D41</f>
         <v>753143.52410631999</v>
@@ -5320,8 +5326,8 @@
       <c r="A72" s="23">
         <v>5135</v>
       </c>
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
       <c r="D72" s="5">
         <f>'MARZO '!D42</f>
         <v>905000</v>
@@ -5332,8 +5338,8 @@
       <c r="A73" s="23">
         <v>5140</v>
       </c>
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
       <c r="D73" s="5">
         <f>D32</f>
         <v>600000</v>
@@ -5344,8 +5350,8 @@
       <c r="A74" s="23">
         <v>5305</v>
       </c>
-      <c r="B74" s="48"/>
-      <c r="C74" s="48"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
       <c r="D74" s="5">
         <f>'MARZO '!D43+'ABRIL '!D26</f>
         <v>320000</v>
@@ -5356,8 +5362,8 @@
       <c r="A75" s="23">
         <v>6135</v>
       </c>
-      <c r="B75" s="48"/>
-      <c r="C75" s="48"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
       <c r="D75" s="5">
         <f>'MARZO '!D44+'ABRIL '!D15</f>
         <v>8058748</v>
@@ -5508,12 +5514,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
@@ -5526,14 +5534,12 @@
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5544,7 +5550,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="B14" sqref="B14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5557,10 +5563,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -5569,10 +5575,10 @@
       <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="25" t="s">
         <v>4</v>
       </c>
@@ -5587,8 +5593,8 @@
       <c r="B3" s="25">
         <v>210505</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="5">
         <f>'FEBRERO '!J9</f>
         <v>754880.10494052002</v>
@@ -5600,8 +5606,8 @@
       <c r="B4" s="25">
         <v>230520</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="5">
         <f>'ABRIL '!E44</f>
         <v>125888.59670632001</v>
@@ -5613,8 +5619,8 @@
       <c r="B5" s="25">
         <v>510520</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="5">
         <f>'FEBRERO '!I9-MAYO!E4</f>
         <v>62944.298353160004</v>
@@ -5626,8 +5632,8 @@
       <c r="B6" s="25">
         <v>111005</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
         <f>E3+E4+E5</f>
@@ -5675,11 +5681,11 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="3">
         <v>3600</v>
       </c>
@@ -5687,11 +5693,11 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="3">
         <v>3645</v>
       </c>
@@ -5723,10 +5729,10 @@
       <c r="B14" s="25">
         <v>211005</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="48"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
         <f>D12*9000</f>
@@ -5738,10 +5744,10 @@
       <c r="B15" s="25">
         <v>530530</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="48"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="5">
         <f>F14</f>
         <v>405000</v>
@@ -5828,11 +5834,11 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
@@ -5859,10 +5865,10 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="49"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="3">
         <v>3600</v>
       </c>
@@ -5870,10 +5876,10 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="49"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="3">
         <v>3645</v>
       </c>
@@ -5906,10 +5912,10 @@
       <c r="B33" s="25">
         <v>221005</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="48"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="5">
         <f>1800*45</f>
         <v>81000</v>
@@ -5921,10 +5927,10 @@
       <c r="B34" s="25">
         <v>530530</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="48"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5">
         <f>E33</f>
@@ -5956,8 +5962,8 @@
       <c r="B38" s="25">
         <v>221005</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="47"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="5">
         <f>1800*C29</f>
         <v>6561000</v>
@@ -5969,8 +5975,8 @@
       <c r="B39" s="25">
         <v>111005</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="47"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5">
         <f>E38</f>
@@ -6319,6 +6325,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A10:C10"/>
@@ -6331,12 +6343,6 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6347,8 +6353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18BBCAC-A7AA-46C5-B283-85397AE996DE}">
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E35"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6360,10 +6366,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -6404,11 +6410,11 @@
       <c r="S2" s="26"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
@@ -6434,26 +6440,26 @@
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48" t="s">
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48" t="s">
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48" t="s">
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -6473,9 +6479,9 @@
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
       <c r="K5" s="25" t="s">
         <v>8</v>
       </c>
@@ -6520,8 +6526,8 @@
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
       <c r="K6" s="25"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -6554,10 +6560,10 @@
       <c r="H7" s="4">
         <v>43875</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="47"/>
+      <c r="J7" s="46"/>
       <c r="K7" s="25">
         <v>13</v>
       </c>
@@ -6600,10 +6606,10 @@
       <c r="H8" s="4">
         <v>43881</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="46"/>
       <c r="K8" s="25"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -6645,10 +6651,10 @@
       <c r="H9" s="4">
         <v>43886</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="47"/>
+      <c r="J9" s="46"/>
       <c r="K9" s="25">
         <v>3</v>
       </c>
@@ -6685,10 +6691,10 @@
       <c r="H10" s="4">
         <v>43895</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="47"/>
+      <c r="J10" s="46"/>
       <c r="K10" s="25"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -6732,10 +6738,10 @@
       <c r="H11" s="4">
         <v>43922</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="47"/>
+      <c r="J11" s="46"/>
       <c r="K11" s="25">
         <v>10</v>
       </c>
@@ -6777,10 +6783,10 @@
       <c r="H12" s="4">
         <v>43926</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="47"/>
+      <c r="J12" s="46"/>
       <c r="K12" s="25"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -6823,10 +6829,10 @@
       <c r="H13" s="4">
         <v>43941</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="47"/>
+      <c r="J13" s="46"/>
       <c r="K13" s="25">
         <v>30</v>
       </c>
@@ -6866,10 +6872,10 @@
       <c r="H14" s="4">
         <v>43983</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="46"/>
       <c r="K14" s="25">
         <v>24</v>
       </c>
@@ -6907,10 +6913,10 @@
       <c r="H15" s="4">
         <v>43986</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="47"/>
+      <c r="J15" s="46"/>
       <c r="K15" s="25"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -7237,12 +7243,12 @@
       <c r="E27" s="38"/>
       <c r="F27" s="26"/>
       <c r="G27" s="39"/>
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
@@ -7614,10 +7620,10 @@
       <c r="S37" s="26"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="52"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="26"/>
       <c r="D38" s="39"/>
       <c r="E38" s="39"/>
@@ -7658,10 +7664,10 @@
       <c r="S39" s="26"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="49"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="39">
         <v>3645</v>
       </c>
@@ -7683,10 +7689,10 @@
       <c r="S40" s="26"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="49"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="39">
         <v>3660</v>
       </c>
@@ -8186,11 +8192,11 @@
       <c r="S59" s="26"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
       <c r="D60" s="39"/>
       <c r="E60" s="39"/>
       <c r="F60" s="26"/>
@@ -8233,10 +8239,10 @@
       <c r="A62" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="49"/>
+      <c r="C62" s="48"/>
       <c r="D62" s="39" t="s">
         <v>4</v>
       </c>
@@ -8262,8 +8268,8 @@
       <c r="A63" s="25">
         <v>1105</v>
       </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="55"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="3">
         <f>'ABRIL '!D53</f>
         <v>10455800</v>
@@ -8285,8 +8291,8 @@
       <c r="A64" s="25">
         <v>1110</v>
       </c>
-      <c r="B64" s="54"/>
-      <c r="C64" s="55"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="26"/>
@@ -8305,8 +8311,8 @@
       <c r="A65" s="25">
         <v>1305</v>
       </c>
-      <c r="B65" s="54"/>
-      <c r="C65" s="55"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="26"/>
@@ -8325,8 +8331,8 @@
       <c r="A66" s="25">
         <v>1355</v>
       </c>
-      <c r="B66" s="54"/>
-      <c r="C66" s="55"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="26"/>
@@ -8345,8 +8351,8 @@
       <c r="A67" s="25">
         <v>1435</v>
       </c>
-      <c r="B67" s="54"/>
-      <c r="C67" s="55"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="26"/>
@@ -8365,8 +8371,8 @@
       <c r="A68" s="25">
         <v>1524</v>
       </c>
-      <c r="B68" s="53"/>
-      <c r="C68" s="49"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="48"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
@@ -8374,8 +8380,8 @@
       <c r="A69" s="25">
         <v>1528</v>
       </c>
-      <c r="B69" s="53"/>
-      <c r="C69" s="49"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="48"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
@@ -8383,8 +8389,8 @@
       <c r="A70" s="25">
         <v>2105</v>
       </c>
-      <c r="B70" s="53"/>
-      <c r="C70" s="49"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="48"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
@@ -8392,8 +8398,8 @@
       <c r="A71" s="25">
         <v>2110</v>
       </c>
-      <c r="B71" s="53"/>
-      <c r="C71" s="49"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="48"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
@@ -8401,8 +8407,8 @@
       <c r="A72" s="25">
         <v>2205</v>
       </c>
-      <c r="B72" s="53"/>
-      <c r="C72" s="49"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="48"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
@@ -8410,8 +8416,8 @@
       <c r="A73" s="25">
         <v>2210</v>
       </c>
-      <c r="B73" s="53"/>
-      <c r="C73" s="49"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="48"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
@@ -8419,8 +8425,8 @@
       <c r="A74" s="25">
         <v>2305</v>
       </c>
-      <c r="B74" s="53"/>
-      <c r="C74" s="49"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="48"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
@@ -8428,8 +8434,8 @@
       <c r="A75" s="25">
         <v>2365</v>
       </c>
-      <c r="B75" s="53"/>
-      <c r="C75" s="49"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="48"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
@@ -8437,8 +8443,8 @@
       <c r="A76" s="25">
         <v>2408</v>
       </c>
-      <c r="B76" s="53"/>
-      <c r="C76" s="49"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="48"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
@@ -8446,8 +8452,8 @@
       <c r="A77" s="25">
         <v>3115</v>
       </c>
-      <c r="B77" s="53"/>
-      <c r="C77" s="49"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="48"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
@@ -8455,8 +8461,8 @@
       <c r="A78" s="25">
         <v>4135</v>
       </c>
-      <c r="B78" s="53"/>
-      <c r="C78" s="49"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="48"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
@@ -8464,8 +8470,8 @@
       <c r="A79" s="25">
         <v>4210</v>
       </c>
-      <c r="B79" s="53"/>
-      <c r="C79" s="49"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="48"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
@@ -8473,8 +8479,8 @@
       <c r="A80" s="25">
         <v>4275</v>
       </c>
-      <c r="B80" s="53"/>
-      <c r="C80" s="49"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="48"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
@@ -8482,8 +8488,8 @@
       <c r="A81" s="25">
         <v>5105</v>
       </c>
-      <c r="B81" s="53"/>
-      <c r="C81" s="49"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="48"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
@@ -8491,8 +8497,8 @@
       <c r="A82" s="25">
         <v>5135</v>
       </c>
-      <c r="B82" s="53"/>
-      <c r="C82" s="49"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="48"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
@@ -8500,8 +8506,8 @@
       <c r="A83" s="25">
         <v>5140</v>
       </c>
-      <c r="B83" s="53"/>
-      <c r="C83" s="49"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="48"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
@@ -8509,8 +8515,8 @@
       <c r="A84" s="25">
         <v>5305</v>
       </c>
-      <c r="B84" s="53"/>
-      <c r="C84" s="49"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="48"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
@@ -8518,8 +8524,8 @@
       <c r="A85" s="25">
         <v>6135</v>
       </c>
-      <c r="B85" s="53"/>
-      <c r="C85" s="49"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="48"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
@@ -8565,6 +8571,39 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
@@ -8577,39 +8616,6 @@
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="H4:J5"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9404,10 +9410,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF64E4F-29BC-4238-9859-EB6E310B22A0}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9439,6 +9445,38 @@
         <v>101</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>230505</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>510520</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>211005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>530530</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
